--- a/biology/Médecine/Centre_hospitalier_du_Centre-Bretagne/Centre_hospitalier_du_Centre-Bretagne.xlsx
+++ b/biology/Médecine/Centre_hospitalier_du_Centre-Bretagne/Centre_hospitalier_du_Centre-Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Centre hospitalier du Centre Bretagne (CHCB) est un centre hospitalier du Morbihan et des Côtes-d'Armor, né de la fusion du centre hospitalier de Pontivy et du Centre Hospitalier Intercommunal de Plémet-Loudéac le 1er janvier 2005.
@@ -512,45 +524,84 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CHCB est l'établissement hospitalier de référence pour le territoire de santé no 8 de la région Bretagne créé à titre dérogatoire en 1996 et qui couvre une population de 130 000 habitants.
 Cet établissement situé à 1 heure de Vannes, Lorient, Saint-Brieuc et Rennes, a ouvert un nouveau site hospitalier en mai 2012 au sein du pôle de santé public-privé du Centre Bretagne situé à Kério sur la commune de Noyal-Pontivy.
-Quelques chiffres
-Employant plus de 1500 personnes (dont 100 médecins), doté d’un budget de fonctionnement avoisinant 110 millions d’euros, le centre hospitalier du Centre Bretagne dispose de 992 lits et places regroupés en sept pôles médicaux et médico-techniques[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Quelques chiffres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Employant plus de 1500 personnes (dont 100 médecins), doté d’un budget de fonctionnement avoisinant 110 millions d’euros, le centre hospitalier du Centre Bretagne dispose de 992 lits et places regroupés en sept pôles médicaux et médico-techniques.
 L’établissement compte 396 lits répartis entre les différentes activités de soins : médecine, pédiatrie, chirurgie, gynécologie-obstétrique. S’ajoutent aux lits d’hospitalisation, 55 places en hospitalisation de jour (toutes spécialités
 confondues), et 13 postes de dialyse.
 Il gère également un centre de rééducation de 70 lits à Plémet et plusieurs unités de soins de suite (70 lits) dont une unité spécialisé en pneumologie à Loudéac. Pour la population âgée du Centre-Bretagne, il dispose de deux Établissement d’Hébergement pour Personnes Âgées Dépendantes à Pontivy et Loudéac qui totalisent une capacité de 404 lits plus une Unité de Soins de Longue Durée de 30 lits et un Service de Soins Infirmiers à Domicile de 36 places.
-En 2011, près de 22 627 patients y ont été hospitalisés, à temps complet ou partiel (soit 149 585 journées d'hospitalisation). On y a dénombré 1068 naissances, 27 722 passages aux urgences, 7 778 interventions chirurgicales et 75 098 consultations hors urgences, 6 719 séances de dialyse, 1 016 sorties du SMUR, 30 359 radiographies, 10 676 Scanner et 5 499 IRM[2].[réf. nécessaire]
+En 2011, près de 22 627 patients y ont été hospitalisés, à temps complet ou partiel (soit 149 585 journées d'hospitalisation). On y a dénombré 1068 naissances, 27 722 passages aux urgences, 7 778 interventions chirurgicales et 75 098 consultations hors urgences, 6 719 séances de dialyse, 1 016 sorties du SMUR, 30 359 radiographies, 10 676 Scanner et 5 499 IRM.[réf. nécessaire]
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_du_Centre-Bretagne</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Avant de devenir le Centre Hospitalier du Centre Bretagne, le CHCB a été 3 entités différentes : l'hôpital de Pontivy, l'hôpital de Loudéac et le Centre de Rééducation de Plémet. Leur histoire communes débute par la volonté de créer en 1994, un territoire de santé du Centre Bretagne, le territoire no 8.
 1996 : Fusion du centre de rééducation de Plémet et du centre hospitalier de Loudéac qui forment le centre hospitalier intercommunal Plémet-Loudéac.
@@ -564,119 +615,298 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_du_Centre-Bretagne</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Le nouveau site hospitalier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nouveau site hospitalier représente une surface de 43 000 m2 au total. Il prévoît 400 lits et places, dont 80 % de chambres individuelles. Ce bâtiment, communiquant avec la polyclinique, forme avec elle le pôle de santé public privé du Centre-Bretagne de 500 lits.
 Le nouvel établissement dont la construction a débuté en septembre 2008 mesure 160 mètres de long et 110 m de large, soit près de trois terrains de football. Il se développe sur six étages, dont trois rez-de-chaussée, car le terrain est en pente. Il est conçu avec des terrassements remodelés sur le site, une chaufferie au bois et une terrasse végétalisée. Côté végétation, cela représente 800 arbres d'ornements plantés, 6 000 arbustes, 5 000 graminées et 20 000 m2 de pelouse.
 Le budget hors taxes de ce nouvel ensemble hospitalier est 70 millions d'euros. Cela représente un chantier de 8 ans dont trois années d'études. 3,5 millions d'euros ont été investis pour des équipements neufs.
-Le logipôle
-Loudéac dispose depuis octobre 2009 du Logipôle. 70 agents y sont employés. Ce service assure la mission logistique du Centre Hospitalier du Centre Bretagne : la restauration (4 000 repas par jour et 1,1 million par an), la blanchisserie (5 tonnes par jour et 1,3 million de kg), le magasin central (stockage des produits et de la gestion des commandes de l'ensemble des services de l'hôpital, en dehors des médicaments et des dispositifs médicaux).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_du_Centre-Bretagne</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Le nouveau site hospitalier</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le logipôle</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Loudéac dispose depuis octobre 2009 du Logipôle. 70 agents y sont employés. Ce service assure la mission logistique du Centre Hospitalier du Centre Bretagne : la restauration (4 000 repas par jour et 1,1 million par an), la blanchisserie (5 tonnes par jour et 1,3 million de kg), le magasin central (stockage des produits et de la gestion des commandes de l'ensemble des services de l'hôpital, en dehors des médicaments et des dispositifs médicaux).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Les Services</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le CHCB propose plusieurs spécialités médicales et chirurgicales, plusieurs structures d'hébergements pour personnes âgées et un Institut de Formation en Soins Infirmiers et Aides Soignants. Par ailleurs, grâce à l’apport d’un pôle de rééducation à Plémet, il assure le suivi de toutes les rééducations traumatologiques, respiratoires, neurologiques et rhumatologiques.
-Sur le site de Noyal-Pontivy
-Un service d’accueil et de traitement des urgences 7J/7 et 24h/24, doté d’un SMUR, d’une unité médico-psychologique[3] et d'une unité d’hospitalisation de courte durée
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CHCB propose plusieurs spécialités médicales et chirurgicales, plusieurs structures d'hébergements pour personnes âgées et un Institut de Formation en Soins Infirmiers et Aides Soignants. Par ailleurs, grâce à l’apport d’un pôle de rééducation à Plémet, il assure le suivi de toutes les rééducations traumatologiques, respiratoires, neurologiques et rhumatologiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Les Services</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sur le site de Noyal-Pontivy</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Un service d’accueil et de traitement des urgences 7J/7 et 24h/24, doté d’un SMUR, d’une unité médico-psychologique et d'une unité d’hospitalisation de courte durée
 Une unité de soins continus (projet de création d'une réanimation)
 En médecine : neurologie générale et unité neurovasculaire (UNV), cardiologie (projet création d'une Unité de soins intensifs de cardiologie), pneumologie, diabétologie et endocrinologie, néphrologie et hémodialyse, Maladies du foie et de l’appareil digestif (intégrant une unité de sevrage alcoolique), médecine polyvalente, Court séjour gériatrique et un Hôpital de jour dont le secteur d’oncologie.
 en chirurgie : viscérale, orthopédique et traumatologique, ORL, chirurgie carcinologique (digestif et ORL), stomatologie.
 en pédiatrie/gynécologie/obstétrique : une unité de pédiatrie, une maternité de niveau 2 A, gynécologie médicale et chirurgicale, chirurgie carcinologique mammaire, IVG, un centre de planification et d’éducation familiale (antennes sur les sites de Pontivy, Loudéac et Rostrenen)
-en psychiatrie : une unité de psychiatrie adulte[4] dépendant du Centre hospitalier de Plouguernével
-Un plateau technique composé d'un bloc opératoire doté de sept salles, pour des interventions en chirurgie générale ou spécialisée (viscérale, orthopédique et traumatologique, gynécologique, ORL) et cancérologique (mammaire, digestive et ORL), d'un bloc obstétrical, d'un laboratoire d’analyses, comprenant un service de prélèvements sanguins ouvert au public tous les jours, d'un service d’imagerie médicale avec radiologie conventionnelle, scanner et IRM, des explorations : endoscopies digestives et bronchiques, échographies, explorations fonctionnelles cœur poumons neurologie et d'un centre de médecine du sport.
-Sur le site de Loudéac
-un centre périnatal de proximité
+en psychiatrie : une unité de psychiatrie adulte dépendant du Centre hospitalier de Plouguernével
+Un plateau technique composé d'un bloc opératoire doté de sept salles, pour des interventions en chirurgie générale ou spécialisée (viscérale, orthopédique et traumatologique, gynécologique, ORL) et cancérologique (mammaire, digestive et ORL), d'un bloc obstétrical, d'un laboratoire d’analyses, comprenant un service de prélèvements sanguins ouvert au public tous les jours, d'un service d’imagerie médicale avec radiologie conventionnelle, scanner et IRM, des explorations : endoscopies digestives et bronchiques, échographies, explorations fonctionnelles cœur poumons neurologie et d'un centre de médecine du sport.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Les Services</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Sur le site de Loudéac</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>un centre périnatal de proximité
 un Soins de suite polyvalents
 un Soins de suite spécialisés respiratoires
 un Établissement d’Hébergement de personnes âgées dépendantes (EHPAD) avec la résidence de la Rose des Sables et celle des Quatre Couleurs
 Service de soins infirmiers à domicile
 Consultations pour la Mémoire
-Accueil de jour Alzheimer et troubles apparentés
-Sur le site de Plémet
-Un centre de rééducation et de réadaptation assurant la prise en charge des Soins de suite spécialisés en « neurologie et locomoteur » en hospitalisation complète et de jour.
-Sur le site de Pontivy à Kervénoël
-Soins de suite spécialisés dans la prise en charge des personnes âgées polypathologiques dépendantes
+Accueil de jour Alzheimer et troubles apparentés</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Les Services</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Sur le site de Plémet</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un centre de rééducation et de réadaptation assurant la prise en charge des Soins de suite spécialisés en « neurologie et locomoteur » en hospitalisation complète et de jour.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les Services</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sur le site de Pontivy à Kervénoël</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Soins de suite spécialisés dans la prise en charge des personnes âgées polypathologiques dépendantes
 Établissement d’hébergement de personnes âgées dépendantes (EHPAD)
 Unité de soins de longue durée
 Consultations pour la Mémoire</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_du_Centre-Bretagne</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Consultations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Par ailleurs, le CHCB a développé un plateau de consultations médico-chirurgicales et explorations fonctionnelles. Il permet de proposer de nombreux domaines de consultations médicales et paramédicales :
 Médecine : Cardiologie, Maladies du foie et de l’appareil digestif, Neurologie, Oncologie, Pédiatrie, Pneumologie, Infectiologie, Néphrologie, Diabétologie-Endocrinologie, Hématologie, Dermatologie, Rhumatologie
@@ -686,62 +916,66 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_du_Centre-Bretagne</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t xml:space="preserve">Il dispose de plusieurs équipements d'imagerie de pointe : scanners, IRM, mammographes, échographe.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_du_Centre-Bretagne</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_du_Centre-Bretagne</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Coopérations</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Le CHCB est engagé dans une dynamique de coopérations et de réseaux de santé :
 Coopération avec le Centre hospitalier de Plouguernével pour la psychiatrie (enfant et adulte) et l'addictologie
